--- a/Flasco細胞ニューラルネットワーク入出力表.xlsx
+++ b/Flasco細胞ニューラルネットワーク入出力表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b43859bb4e88c2c5/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{58939D0F-5B7B-48CA-BEA3-428BEAEEC817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50367BE6-D42D-4507-9799-9067106CC5D7}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{58939D0F-5B7B-48CA-BEA3-428BEAEEC817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E90A554-1231-4828-9795-78D30167A8AF}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{2E26BC28-DD0E-42F0-B842-BA3FEAB815ED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E26BC28-DD0E-42F0-B842-BA3FEAB815ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,228 +36,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>レイ1角度</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>レイ2角度</t>
     <rPh sb="3" eb="5">
       <t>カクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイ1色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ1色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ1色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ2角度</t>
+    <t>レイ3角度</t>
     <rPh sb="3" eb="5">
       <t>カクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイ2色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ2色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ2色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ3角度</t>
+    <t>レイ4角度</t>
     <rPh sb="3" eb="5">
       <t>カクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイ3色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ3色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ3色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ4角度</t>
+    <t>レイ5角度</t>
     <rPh sb="3" eb="5">
       <t>カクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイ4色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ4色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ4色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ5角度</t>
+    <t>レイ6角度</t>
     <rPh sb="3" eb="5">
       <t>カクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイ5色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ5色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ5色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ6角度</t>
+    <t>レイ7角度</t>
     <rPh sb="3" eb="5">
       <t>カクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レイ6色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ6色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ6色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ7角度</t>
+    <t>レイ8角度</t>
     <rPh sb="3" eb="5">
       <t>カクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ7色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ7色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ7色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ8角度</t>
-    <rPh sb="3" eb="5">
-      <t>カクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ8色a</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ8色b</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイ8色c</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -550,13 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力(47)</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>隠れ層(30)</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -597,6 +415,397 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色B_g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色B_b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色C_r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色C_g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ2色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ2色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ2色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ2色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ2色B_g</t>
+  </si>
+  <si>
+    <t>レイ2色B_b</t>
+  </si>
+  <si>
+    <t>レイ2色C_r</t>
+  </si>
+  <si>
+    <t>レイ2色C_g</t>
+  </si>
+  <si>
+    <t>レイ2色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ3色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ3色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ3色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ3色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ3色B_g</t>
+  </si>
+  <si>
+    <t>レイ3色B_b</t>
+  </si>
+  <si>
+    <t>レイ3色C_r</t>
+  </si>
+  <si>
+    <t>レイ3色C_g</t>
+  </si>
+  <si>
+    <t>レイ3色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ4色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ4色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ4色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ4色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ4色B_g</t>
+  </si>
+  <si>
+    <t>レイ4色B_b</t>
+  </si>
+  <si>
+    <t>レイ4色C_r</t>
+  </si>
+  <si>
+    <t>レイ4色C_g</t>
+  </si>
+  <si>
+    <t>レイ4色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ5色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ5色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ5色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ5色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ5色B_g</t>
+  </si>
+  <si>
+    <t>レイ5色B_b</t>
+  </si>
+  <si>
+    <t>レイ5色C_r</t>
+  </si>
+  <si>
+    <t>レイ5色C_g</t>
+  </si>
+  <si>
+    <t>レイ5色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ6色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ6色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ6色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ6色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ6色B_g</t>
+  </si>
+  <si>
+    <t>レイ6色B_b</t>
+  </si>
+  <si>
+    <t>レイ6色C_r</t>
+  </si>
+  <si>
+    <t>レイ6色C_g</t>
+  </si>
+  <si>
+    <t>レイ6色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ7色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ7色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ7色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ7色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ7色B_g</t>
+  </si>
+  <si>
+    <t>レイ7色B_b</t>
+  </si>
+  <si>
+    <t>レイ7色C_r</t>
+  </si>
+  <si>
+    <t>レイ7色C_g</t>
+  </si>
+  <si>
+    <t>レイ7色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ8色A_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ8色A_g</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ8色A_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ8色B_r</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ8色B_g</t>
+  </si>
+  <si>
+    <t>レイ8色B_b</t>
+  </si>
+  <si>
+    <t>レイ8色C_r</t>
+  </si>
+  <si>
+    <t>レイ8色C_g</t>
+  </si>
+  <si>
+    <t>レイ8色C_b</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイ1角度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力(96)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1031,234 +1240,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B5B25A-B53D-4EF7-9B78-02A33676EEDA}">
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:CS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="U3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="1" t="s">
+      <c r="V3" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Flasco細胞ニューラルネットワーク入出力表.xlsx
+++ b/Flasco細胞ニューラルネットワーク入出力表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b43859bb4e88c2c5/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yms_k\PycharmProjects\Flasco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{58939D0F-5B7B-48CA-BEA3-428BEAEEC817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E90A554-1231-4828-9795-78D30167A8AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD98C3-AD74-4400-A395-EC3898859B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E26BC28-DD0E-42F0-B842-BA3FEAB815ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>レイ2角度</t>
     <rPh sb="3" eb="5">
@@ -806,6 +806,26 @@
     <t>入力(96)</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動x座標</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動y座標</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -831,7 +851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +888,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -883,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +928,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -917,10 +946,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,7 +1267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B5B25A-B53D-4EF7-9B78-02A33676EEDA}">
   <dimension ref="A1:CS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1611,6 +1638,12 @@
       <c r="V3" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="W3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
